--- a/NamMatlab/QRL/MatlabImages/parameters.xlsx
+++ b/NamMatlab/QRL/MatlabImages/parameters.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="9780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="54" sheetId="2" r:id="rId2"/>
     <sheet name="55" sheetId="3" r:id="rId3"/>
     <sheet name="56" sheetId="4" r:id="rId4"/>
+    <sheet name="57" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>filenumber</t>
   </si>
@@ -874,6 +875,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.13769999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B25"/>
     </sheetView>
@@ -885,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/NamMatlab/QRL/MatlabImages/parameters.xlsx
+++ b/NamMatlab/QRL/MatlabImages/parameters.xlsx
@@ -4,21 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="9780" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="54" sheetId="2" r:id="rId2"/>
     <sheet name="55" sheetId="3" r:id="rId3"/>
     <sheet name="56" sheetId="4" r:id="rId4"/>
     <sheet name="57" sheetId="5" r:id="rId5"/>
+    <sheet name="60" sheetId="6" r:id="rId6"/>
+    <sheet name="61" sheetId="7" r:id="rId7"/>
+    <sheet name="62" sheetId="8" r:id="rId8"/>
+    <sheet name="63" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="34">
   <si>
     <t>filenumber</t>
   </si>
@@ -93,19 +97,52 @@
   </si>
   <si>
     <t>zeta_R</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>k_R</t>
+  </si>
+  <si>
+    <t>k_\Omega</t>
+  </si>
+  <si>
+    <t>k_q</t>
+  </si>
+  <si>
+    <t>k_\omega</t>
+  </si>
+  <si>
+    <t>k_x</t>
+  </si>
+  <si>
+    <t>k_v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,8 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,13 +472,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>63</v>
+      </c>
+      <c r="G1">
+        <v>61</v>
+      </c>
+      <c r="I1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D2)</f>
+        <v>kR</v>
+      </c>
+      <c r="F2" s="1">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D2)</f>
+        <v>0.98100000000000009</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D2)</f>
+        <v>kR</v>
+      </c>
+      <c r="H2" s="1">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D2)</f>
+        <v>0.98100000000000009</v>
+      </c>
+      <c r="I2" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D2)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D3)</f>
+        <v>kOmega</v>
+      </c>
+      <c r="F3" s="1">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D3)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D3)</f>
+        <v>kOmega</v>
+      </c>
+      <c r="H3" s="1">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D3)</f>
+        <v>0.45</v>
+      </c>
+      <c r="I3" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J3" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D3)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D4)</f>
+        <v>kq</v>
+      </c>
+      <c r="F4" s="1">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D4)</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D4)</f>
+        <v>kq</v>
+      </c>
+      <c r="H4" s="1">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D4)</f>
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J4" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D5)</f>
+        <v>komega</v>
+      </c>
+      <c r="F5" s="1">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D5)</f>
+        <v>7.5</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D5)</f>
+        <v>komega</v>
+      </c>
+      <c r="H5" s="1">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D5)</f>
+        <v>7.5</v>
+      </c>
+      <c r="I5" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D6)</f>
+        <v>kpx</v>
+      </c>
+      <c r="F6" s="1">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D6)</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D6)</f>
+        <v>kpx</v>
+      </c>
+      <c r="H6" s="1">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D6)</f>
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J6" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D6)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D7)</f>
+        <v>kdx</v>
+      </c>
+      <c r="F7" s="1">
+        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D7)</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D7)</f>
+        <v>kdx</v>
+      </c>
+      <c r="H7" s="1">
+        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D7)</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J7" s="1" t="e">
+        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D7)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <f ca="1">F2</f>
+        <v>0.98100000000000009</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <f ca="1">H2</f>
+        <v>0.98100000000000009</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="e">
+        <f ca="1">J2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <f ca="1">F3</f>
+        <v>0.1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <f ca="1">H3</f>
+        <v>0.45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="e">
+        <f ca="1">J3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <f ca="1">F4</f>
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <f ca="1">H4</f>
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="e">
+        <f ca="1">J4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <f ca="1">F5</f>
+        <v>7.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <f ca="1">H5</f>
+        <v>7.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="e">
+        <f ca="1">J5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <f ca="1">F6</f>
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <f ca="1">H6</f>
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="e">
+        <f ca="1">J6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <f ca="1">F7</f>
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <f ca="1">H7</f>
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="e">
+        <f ca="1">J7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -445,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,6 +1093,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1090,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
@@ -1109,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.34</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.315</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.2000000000000003E-2</v>
+        <v>2.2300000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8.4500000000000006E-2</v>
+        <v>2.99E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.13769999999999999</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1606,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8.81</v>
+        <v>0.98100000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1630,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>52.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,7 +1638,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,7 +1646,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1213,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,7 +1662,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,7 +1694,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>37</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +1702,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>37</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1718,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1726,870 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.98100000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.98100000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.98100000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">

--- a/NamMatlab/QRL/MatlabImages/parameters.xlsx
+++ b/NamMatlab/QRL/MatlabImages/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="9780"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="9780" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="61" sheetId="7" r:id="rId7"/>
     <sheet name="62" sheetId="8" r:id="rId8"/>
     <sheet name="63" sheetId="9" r:id="rId9"/>
+    <sheet name="64" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="34">
   <si>
     <t>filenumber</t>
   </si>
@@ -474,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -496,27 +497,27 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D2)</f>
+        <f t="shared" ref="E2:E7" ca="1" si="0">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D2)</f>
         <v>kR</v>
       </c>
       <c r="F2" s="1">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D2)</f>
+        <f t="shared" ref="F2:F7" ca="1" si="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D2)</f>
         <v>0.98100000000000009</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D2)</f>
+        <f t="shared" ref="G2:G7" ca="1" si="2">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D2)</f>
         <v>kR</v>
       </c>
       <c r="H2" s="1">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D2)</f>
+        <f t="shared" ref="H2:H7" ca="1" si="3">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D2)</f>
         <v>0.98100000000000009</v>
       </c>
       <c r="I2" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D2)</f>
+        <f t="shared" ref="I2:I7" ca="1" si="4">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D2)</f>
         <v>#REF!</v>
       </c>
       <c r="J2" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D2)</f>
+        <f t="shared" ref="J2:J7" ca="1" si="5">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D2)</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -525,27 +526,27 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D3)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>kOmega</v>
       </c>
       <c r="F3" s="1">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D3)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D3)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>kOmega</v>
       </c>
       <c r="H3" s="1">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D3)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.45</v>
       </c>
       <c r="I3" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D3)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="J3" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -554,27 +555,27 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>kq</v>
       </c>
       <c r="F4" s="1">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D4)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>kq</v>
       </c>
       <c r="H4" s="1">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
       <c r="I4" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D4)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D4)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -583,27 +584,27 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>komega</v>
       </c>
       <c r="F5" s="1">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D5)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>7.5</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D5)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>komega</v>
       </c>
       <c r="H5" s="1">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D5)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>7.5</v>
       </c>
       <c r="I5" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="J5" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D5)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -612,27 +613,27 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>kpx</v>
       </c>
       <c r="F6" s="1">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D6)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D6)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>kpx</v>
       </c>
       <c r="H6" s="1">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D6)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
       <c r="I6" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D6)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="J6" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D6)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -641,27 +642,27 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>kdx</v>
       </c>
       <c r="F7" s="1">
-        <f ca="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D7)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D7)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>kdx</v>
       </c>
       <c r="H7" s="1">
-        <f ca="1">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D7)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I7" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D7)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="J7" s="1" t="e">
-        <f ca="1">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D7)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -679,21 +680,21 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <f ca="1">F2</f>
+        <f t="shared" ref="E9:E14" ca="1" si="6">F2</f>
         <v>0.98100000000000009</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
       <c r="G9">
-        <f ca="1">H2</f>
+        <f t="shared" ref="G9:G14" ca="1" si="7">H2</f>
         <v>0.98100000000000009</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
       <c r="I9" t="e">
-        <f ca="1">J2</f>
+        <f t="shared" ref="I9:I14" ca="1" si="8">J2</f>
         <v>#REF!</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -714,21 +715,21 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <f ca="1">F3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
       <c r="G10">
-        <f ca="1">H3</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.45</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
       </c>
       <c r="I10" t="e">
-        <f ca="1">J3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -749,21 +750,21 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <f ca="1">F4</f>
+        <f t="shared" ca="1" si="6"/>
         <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
       <c r="G11">
-        <f ca="1">H4</f>
+        <f t="shared" ca="1" si="7"/>
         <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
       </c>
       <c r="I11" t="e">
-        <f ca="1">J4</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -784,21 +785,21 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <f ca="1">F5</f>
+        <f t="shared" ca="1" si="6"/>
         <v>7.5</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
       <c r="G12">
-        <f ca="1">H5</f>
+        <f t="shared" ca="1" si="7"/>
         <v>7.5</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
       </c>
       <c r="I12" t="e">
-        <f ca="1">J5</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -819,21 +820,21 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <f ca="1">F6</f>
+        <f t="shared" ca="1" si="6"/>
         <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13">
-        <f ca="1">H6</f>
+        <f t="shared" ca="1" si="7"/>
         <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
       </c>
       <c r="I13" t="e">
-        <f ca="1">J6</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -854,21 +855,21 @@
         <v>26</v>
       </c>
       <c r="E14">
-        <f ca="1">F7</f>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
       <c r="G14">
-        <f ca="1">H7</f>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
       </c>
       <c r="I14" t="e">
-        <f ca="1">J7</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -878,6 +879,221 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.98100000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/NamMatlab/QRL/MatlabImages/parameters.xlsx
+++ b/NamMatlab/QRL/MatlabImages/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="9780" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -475,195 +475,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="A9:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E1">
+      <c r="D1">
         <v>63</v>
       </c>
-      <c r="G1">
+      <c r="F1">
         <v>61</v>
       </c>
-      <c r="I1">
-        <v>41</v>
+      <c r="H1">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2">
+      <c r="C2">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E7" ca="1" si="0">INDIRECT("'"&amp;E$1&amp;"'!A"&amp;$D2)</f>
+      <c r="D2" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C2)</f>
         <v>kR</v>
       </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F7" ca="1" si="1">INDIRECT("'"&amp;E$1&amp;"'!B"&amp;$D2)</f>
+      <c r="E2" s="1">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C2)</f>
         <v>0.98100000000000009</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G7" ca="1" si="2">INDIRECT("'"&amp;G$1&amp;"'!A"&amp;$D2)</f>
+      <c r="F2" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C2)</f>
         <v>kR</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H7" ca="1" si="3">INDIRECT("'"&amp;G$1&amp;"'!B"&amp;$D2)</f>
+      <c r="G2" s="1">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C2)</f>
         <v>0.98100000000000009</v>
       </c>
-      <c r="I2" s="1" t="e">
-        <f t="shared" ref="I2:I7" ca="1" si="4">INDIRECT("'"&amp;I$1&amp;"'!A"&amp;$D2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="1" t="e">
-        <f t="shared" ref="J2:J7" ca="1" si="5">INDIRECT("'"&amp;I$1&amp;"'!B"&amp;$D2)</f>
-        <v>#REF!</v>
+      <c r="H2" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C2)</f>
+        <v>kR</v>
+      </c>
+      <c r="I2" s="1">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C2)</f>
+        <v>0.98100000000000009</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C3)</f>
         <v>kOmega</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E3" s="1">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C3)</f>
         <v>0.1</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="F3" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C3)</f>
         <v>kOmega</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="G3" s="1">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C3)</f>
         <v>0.45</v>
       </c>
-      <c r="I3" s="1" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J3" s="1" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
+      <c r="H3" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C3)</f>
+        <v>kOmega</v>
+      </c>
+      <c r="I3" s="1">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C3)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4">
+      <c r="C4">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D4" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C4)</f>
         <v>kq</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="E4" s="1">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C4)</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C4)</f>
         <v>kq</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J4" s="1" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
+      <c r="G4" s="1">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C4)</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C4)</f>
+        <v>kq</v>
+      </c>
+      <c r="I4" s="1">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C4)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5">
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D5" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C5)</f>
         <v>komega</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E5" s="1">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C5)</f>
         <v>7.5</v>
       </c>
-      <c r="G5" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="F5" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C5)</f>
         <v>komega</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="G5" s="1">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C5)</f>
         <v>7.5</v>
       </c>
-      <c r="I5" s="1" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" s="1" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
+      <c r="H5" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C5)</f>
+        <v>komega</v>
+      </c>
+      <c r="I5" s="1">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C5)</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6">
+      <c r="C6">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D6" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C6)</f>
         <v>kpx</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="E6" s="1">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C6)</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C6)</f>
         <v>kpx</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" s="1" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
+      <c r="G6" s="1">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C6)</f>
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C6)</f>
+        <v>kpx</v>
+      </c>
+      <c r="I6" s="1">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C6)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7">
+      <c r="C7">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D7" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C7)</f>
         <v>kdx</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E7" s="1">
+        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C7)</f>
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="F7" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C7)</f>
         <v>kdx</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="G7" s="1">
+        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C7)</f>
         <v>3</v>
       </c>
-      <c r="I7" s="1" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="1" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
+      <c r="H7" s="1" t="str">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C7)</f>
+        <v>kdx</v>
+      </c>
+      <c r="I7" s="1">
+        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C7)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -679,23 +679,23 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <f t="shared" ref="E9:E14" ca="1" si="6">F2</f>
-        <v>0.98100000000000009</v>
+      <c r="E9" t="str">
+        <f ca="1">SUBSTITUTE(E2,",",".")</f>
+        <v>0.981</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G14" ca="1" si="7">H2</f>
-        <v>0.98100000000000009</v>
+      <c r="G9" t="str">
+        <f t="shared" ref="G9:G14" ca="1" si="0">SUBSTITUTE(G2,",",".")</f>
+        <v>0.981</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="e">
-        <f t="shared" ref="I9:I14" ca="1" si="8">J2</f>
-        <v>#REF!</v>
+      <c r="I9" t="str">
+        <f t="shared" ref="I9:I14" ca="1" si="1">SUBSTITUTE(I2,",",".")</f>
+        <v>0.981</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>27</v>
@@ -714,23 +714,23 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E10" t="str">
+        <f t="shared" ref="E10:E14" ca="1" si="2">SUBSTITUTE(E3,",",".")</f>
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="7"/>
+      <c r="G10" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0.45</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="I10" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
+      <c r="I10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>27</v>
@@ -749,23 +749,23 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="7"/>
+      <c r="G11" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="I11" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
+      <c r="I11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>27</v>
@@ -784,23 +784,23 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>7.5</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="7"/>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>7.5</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
       </c>
-      <c r="I12" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
+      <c r="I12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.5</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>27</v>
@@ -819,23 +819,23 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="7"/>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="I13" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
+      <c r="I13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>27</v>
@@ -854,23 +854,23 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="7"/>
+      <c r="G14" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="I14" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
+      <c r="I14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>27</v>
@@ -886,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>

--- a/NamMatlab/QRL/MatlabImages/parameters.xlsx
+++ b/NamMatlab/QRL/MatlabImages/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="9780"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="9780" firstSheet="2" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,27 @@
     <sheet name="62" sheetId="8" r:id="rId8"/>
     <sheet name="63" sheetId="9" r:id="rId9"/>
     <sheet name="64" sheetId="10" r:id="rId10"/>
+    <sheet name="66" sheetId="11" r:id="rId11"/>
+    <sheet name="67" sheetId="12" r:id="rId12"/>
+    <sheet name="68" sheetId="13" r:id="rId13"/>
+    <sheet name="65" sheetId="14" r:id="rId14"/>
+    <sheet name="69" sheetId="15" r:id="rId15"/>
+    <sheet name="70" sheetId="16" r:id="rId16"/>
+    <sheet name="71" sheetId="17" r:id="rId17"/>
+    <sheet name="72" sheetId="18" r:id="rId18"/>
+    <sheet name="73" sheetId="19" r:id="rId19"/>
+    <sheet name="74" sheetId="20" r:id="rId20"/>
+    <sheet name="75" sheetId="21" r:id="rId21"/>
+    <sheet name="76" sheetId="22" r:id="rId22"/>
+    <sheet name="77" sheetId="23" r:id="rId23"/>
+    <sheet name="78" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="35">
   <si>
     <t>filenumber</t>
   </si>
@@ -125,6 +139,9 @@
   </si>
   <si>
     <t>k_v</t>
+  </si>
+  <si>
+    <t>eps</t>
   </si>
 </sst>
 </file>
@@ -475,21 +492,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="A9:J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D1">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F1">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H1">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -497,28 +514,28 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C2)</f>
+        <f t="shared" ref="D2:D7" ca="1" si="0">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C2)</f>
         <v>kR</v>
       </c>
       <c r="E2" s="1">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C2)</f>
-        <v>0.98100000000000009</v>
+        <f t="shared" ref="E2:E7" ca="1" si="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C2)</f>
+        <v>0.9</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C2)</f>
+        <f t="shared" ref="F2:F7" ca="1" si="2">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C2)</f>
         <v>kR</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C2)</f>
-        <v>0.98100000000000009</v>
+        <f t="shared" ref="G2:G7" ca="1" si="3">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C2)</f>
+        <v>0.9</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C2)</f>
+        <f t="shared" ref="H2:H7" ca="1" si="4">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C2)</f>
         <v>kR</v>
       </c>
       <c r="I2" s="1">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C2)</f>
-        <v>0.98100000000000009</v>
+        <f t="shared" ref="I2:I7" ca="1" si="5">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C2)</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -526,28 +543,28 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C3)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>kOmega</v>
       </c>
       <c r="E3" s="1">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C3)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C3)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>kOmega</v>
       </c>
       <c r="G3" s="1">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C3)</f>
-        <v>0.45</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C3)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>kOmega</v>
       </c>
       <c r="I3" s="1">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C3)</f>
-        <v>0.45</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -555,28 +572,28 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>kq</v>
       </c>
       <c r="E4" s="1">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C4)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.9</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>kq</v>
       </c>
       <c r="G4" s="1">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C4)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.9</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C4)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>kq</v>
       </c>
       <c r="I4" s="1">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C4)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -584,28 +601,28 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>komega</v>
       </c>
       <c r="E5" s="1">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C5)</f>
-        <v>7.5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C5)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>komega</v>
       </c>
       <c r="G5" s="1">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C5)</f>
-        <v>7.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>komega</v>
       </c>
       <c r="I5" s="1">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C5)</f>
-        <v>7.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -613,28 +630,28 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>kpx</v>
       </c>
       <c r="E6" s="1">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C6)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C6)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>kpx</v>
       </c>
       <c r="G6" s="1">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C6)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C6)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>kpx</v>
       </c>
       <c r="I6" s="1">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C6)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -642,28 +659,28 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!A"&amp;$C7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>kdx</v>
       </c>
       <c r="E7" s="1">
-        <f ca="1">INDIRECT("'"&amp;D$1&amp;"'!B"&amp;$C7)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.75</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!A"&amp;$C7)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>kdx</v>
       </c>
       <c r="G7" s="1">
-        <f ca="1">INDIRECT("'"&amp;F$1&amp;"'!B"&amp;$C7)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.75</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!A"&amp;$C7)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>kdx</v>
       </c>
       <c r="I7" s="1">
-        <f ca="1">INDIRECT("'"&amp;H$1&amp;"'!B"&amp;$C7)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -681,21 +698,21 @@
       </c>
       <c r="E9" t="str">
         <f ca="1">SUBSTITUTE(E2,",",".")</f>
-        <v>0.981</v>
+        <v>0.9</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" ref="G9:G14" ca="1" si="0">SUBSTITUTE(G2,",",".")</f>
-        <v>0.981</v>
+        <f t="shared" ref="G9:G14" ca="1" si="6">SUBSTITUTE(G2,",",".")</f>
+        <v>0.9</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" ref="I9:I14" ca="1" si="1">SUBSTITUTE(I2,",",".")</f>
-        <v>0.981</v>
+        <f t="shared" ref="I9:I14" ca="1" si="7">SUBSTITUTE(I2,",",".")</f>
+        <v>0.9</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>27</v>
@@ -715,22 +732,22 @@
         <v>26</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" ref="E10:E14" ca="1" si="2">SUBSTITUTE(E3,",",".")</f>
+        <f t="shared" ref="E10:E14" ca="1" si="8">SUBSTITUTE(E3,",",".")</f>
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.1</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.45</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.1</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>27</v>
@@ -750,22 +767,22 @@
         <v>26</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.9</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.9</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.29</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>27</v>
@@ -785,22 +802,22 @@
         <v>26</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.8</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>27</v>
@@ -820,22 +837,22 @@
         <v>26</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.6</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>27</v>
@@ -855,22 +872,22 @@
         <v>26</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2.75</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.75</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.825</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>27</v>
@@ -1097,6 +1114,1941 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
@@ -1310,6 +3262,1097 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2611,7 +5654,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,7 +5728,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.98100000000000009</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +5744,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,7 +5752,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +5760,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +5768,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +5776,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +5816,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +5840,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
